--- a/templates/community/TRR341_Phenotyping/Study_Characteristics_TRR341_MIAPPE/Study_Characteristics_TRR341_MIAPPE_v1.0.1.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Characteristics_TRR341_MIAPPE/Study_Characteristics_TRR341_MIAPPE_v1.0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\TRR341_Phenotyping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\Swate-templates\templates\community\TRR341_Phenotyping\Study_Characteristics_TRR341_MIAPPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{246035A2-71B9-4905-9C3C-6A50E29414DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58257D58-6780-477C-A701-4AE2A7A219B9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C730BEC-97BC-4B02-A08C-98179951560F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="811" firstSheet="1" activeTab="1" xr2:uid="{424F8DC5-9123-44F6-A765-1A524B13497E}"/>
+    <workbookView xWindow="570" yWindow="435" windowWidth="24510" windowHeight="15045" tabRatio="811" activeTab="1" xr2:uid="{424F8DC5-9123-44F6-A765-1A524B13497E}"/>
   </bookViews>
   <sheets>
     <sheet name="Characteristics" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Source Name</t>
   </si>
@@ -256,13 +256,19 @@
   </si>
   <si>
     <t>Authors Role Term Source REF</t>
+  </si>
+  <si>
+    <t>ARC</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ARC_00000108</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,7 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -439,10 +445,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -554,9 +561,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -594,7 +601,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -700,7 +707,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -842,7 +849,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -879,7 +886,7 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
@@ -1401,7 +1408,7 @@
     <col min="547" max="547" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1472,7 +1479,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1507,18 +1514,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD97CC03-77C1-4F03-828F-E9E924434399}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -1526,7 +1534,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
@@ -1534,7 +1542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
@@ -1542,7 +1550,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
@@ -1550,7 +1558,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
@@ -1558,7 +1566,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -1566,37 +1574,37 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -1622,11 +1630,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="28.9">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B13" s="3"/>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
       <c r="D13" t="s">
         <v>49</v>
       </c>
@@ -1640,23 +1651,26 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="3"/>
+      <c r="C14" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="E14" s="12"/>
       <c r="F14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>56</v>
       </c>
@@ -1664,7 +1678,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>58</v>
       </c>
@@ -1672,13 +1686,13 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>61</v>
       </c>
@@ -1686,25 +1700,25 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>66</v>
       </c>
@@ -1712,13 +1726,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>69</v>
       </c>
@@ -1726,13 +1740,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>72</v>
       </c>
